--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -115,55 +115,55 @@
     <t xml:space="preserve">PSD -&gt; HTML</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/736917607018092/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/739354650107721/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/740862183290301/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3bKR5h4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3bMiL5p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/300F9oM</t>
   </si>
   <si>
     <t xml:space="preserve">Finish Modest Web</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/743293136380539/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3BKJR7D</t>
   </si>
   <si>
     <t xml:space="preserve">Boostrap</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/745824612794058/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3CQ0jVi</t>
   </si>
   <si>
     <t xml:space="preserve">Javascript </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/749402875769565/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3qc8YOl</t>
   </si>
   <si>
     <t xml:space="preserve">Javascript methods</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/750797162296803/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/2ZWlqHz</t>
   </si>
   <si>
     <t xml:space="preserve">OOP in Javascript, Prototype, Loop</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/751870138856172/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3CQ0lMU</t>
   </si>
   <si>
     <t xml:space="preserve">HTML DOM</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/754724798570706/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3wjbgMA</t>
   </si>
   <si>
     <t xml:space="preserve">Event</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/756102681766251/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3o0aYqs</t>
   </si>
   <si>
     <t xml:space="preserve">Event Practice Part 1</t>
@@ -619,13 +619,13 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.33"/>
@@ -800,8 +800,12 @@
       <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>44358</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -1507,16 +1511,16 @@
     <hyperlink ref="C8" r:id="rId5" display="https://bit.ly/3nhaX0L"/>
     <hyperlink ref="C9" r:id="rId6" display="https://bit.ly/2ZjljVD"/>
     <hyperlink ref="C10" r:id="rId7" display="https://bit.ly/3Bu9RnH"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://www.facebook.com/groups/719796585396861/posts/736917607018092/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://www.facebook.com/groups/719796585396861/posts/739354650107721/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://www.facebook.com/groups/719796585396861/posts/740862183290301/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://www.facebook.com/groups/719796585396861/posts/743293136380539/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://www.facebook.com/groups/719796585396861/posts/745824612794058/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://www.facebook.com/groups/719796585396861/posts/749402875769565/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://www.facebook.com/groups/719796585396861/posts/750797162296803/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C18" r:id="rId15" display="https://www.facebook.com/groups/719796585396861/posts/751870138856172/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://www.facebook.com/groups/719796585396861/posts/754724798570706/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C20" r:id="rId17" display="https://www.facebook.com/groups/719796585396861/posts/756102681766251/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C11" r:id="rId8" display="https://bit.ly/3bKR5h4"/>
+    <hyperlink ref="C12" r:id="rId9" display="https://bit.ly/3bMiL5p"/>
+    <hyperlink ref="C13" r:id="rId10" display="https://bit.ly/300F9oM"/>
+    <hyperlink ref="C14" r:id="rId11" display="https://bit.ly/3BKJR7D"/>
+    <hyperlink ref="C15" r:id="rId12" display="https://bit.ly/3CQ0jVi"/>
+    <hyperlink ref="C16" r:id="rId13" display="https://bit.ly/3qc8YOl"/>
+    <hyperlink ref="C17" r:id="rId14" display="https://bit.ly/2ZWlqHz"/>
+    <hyperlink ref="C18" r:id="rId15" display="https://bit.ly/3CQ0lMU"/>
+    <hyperlink ref="C19" r:id="rId16" display="https://bit.ly/3wjbgMA"/>
+    <hyperlink ref="C20" r:id="rId17" display="https://bit.ly/3o0aYqs"/>
     <hyperlink ref="C21" r:id="rId18" display="https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
     <hyperlink ref="C22" r:id="rId19" display="https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
     <hyperlink ref="C23" r:id="rId20" display="https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -620,10 +620,10 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -817,8 +817,12 @@
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>44388</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -619,11 +619,11 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -832,8 +832,12 @@
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>44450</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://bit.ly/300F9oM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Modest Partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3D4bYjE</t>
   </si>
   <si>
     <t xml:space="preserve">Finish Modest Web</t>
@@ -617,13 +623,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -852,7 +858,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>44299</v>
+        <v>44417</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>34</v>
@@ -865,7 +871,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>44303</v>
+        <v>44299</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -878,7 +884,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>44310</v>
+        <v>44303</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>38</v>
@@ -891,7 +897,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>44312</v>
+        <v>44310</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>40</v>
@@ -904,7 +910,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
-        <v>44314</v>
+        <v>44312</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>42</v>
@@ -917,7 +923,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
-        <v>44320</v>
+        <v>44314</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>44</v>
@@ -930,7 +936,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
-        <v>44322</v>
+        <v>44320</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>46</v>
@@ -943,7 +949,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
-        <v>44325</v>
+        <v>44322</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>48</v>
@@ -969,7 +975,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>44328</v>
+        <v>44325</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>52</v>
@@ -982,7 +988,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
-        <v>44329</v>
+        <v>44328</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>54</v>
@@ -995,7 +1001,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
-        <v>44331</v>
+        <v>44329</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>56</v>
@@ -1021,7 +1027,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
-        <v>44334</v>
+        <v>44331</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>60</v>
@@ -1034,7 +1040,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
-        <v>44335</v>
+        <v>44334</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>62</v>
@@ -1047,7 +1053,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
-        <v>44339</v>
+        <v>44335</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>64</v>
@@ -1060,7 +1066,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
-        <v>44342</v>
+        <v>44339</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>66</v>
@@ -1072,10 +1078,10 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="2" t="n">
         <v>44342</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C31" s="4" t="s">
@@ -1085,10 +1091,10 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="n">
-        <v>44347</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="A32" s="6" t="n">
+        <v>44342</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -1099,7 +1105,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
-        <v>44350</v>
+        <v>44347</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>72</v>
@@ -1112,7 +1118,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
-        <v>44352</v>
+        <v>44350</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>74</v>
@@ -1125,7 +1131,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
-        <v>44356</v>
+        <v>44352</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>76</v>
@@ -1138,7 +1144,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
-        <v>44358</v>
+        <v>44356</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>78</v>
@@ -1164,7 +1170,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
-        <v>44362</v>
+        <v>44358</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>82</v>
@@ -1176,26 +1182,26 @@
       <c r="F38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>44362</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="C39" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="n">
-        <v>44368</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C41" s="4" t="s">
         <v>87</v>
       </c>
@@ -1204,7 +1210,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
-        <v>44370</v>
+        <v>44368</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>88</v>
@@ -1217,20 +1223,20 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
-        <v>44372</v>
+        <v>44370</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
-        <v>44377</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>91</v>
+        <v>44372</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>92</v>
@@ -1240,7 +1246,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
-        <v>44380</v>
+        <v>44377</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>93</v>
@@ -1252,19 +1258,19 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>44380</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>95</v>
+      </c>
       <c r="C46" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2" t="n">
-        <v>44384</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>96</v>
-      </c>
       <c r="C47" s="4" t="s">
         <v>97</v>
       </c>
@@ -1273,7 +1279,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
-        <v>44387</v>
+        <v>44384</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>98</v>
@@ -1286,7 +1292,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
-        <v>44390</v>
+        <v>44387</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>100</v>
@@ -1299,7 +1305,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
-        <v>44392</v>
+        <v>44390</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>102</v>
@@ -1312,7 +1318,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
-        <v>44394</v>
+        <v>44392</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>104</v>
@@ -1325,9 +1331,9 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
-        <v>44398</v>
-      </c>
-      <c r="B52" s="7" t="s">
+        <v>44394</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1338,9 +1344,9 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
-        <v>44399</v>
-      </c>
-      <c r="B53" s="0" t="s">
+        <v>44398</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
@@ -1351,7 +1357,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
-        <v>44400</v>
+        <v>44399</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>110</v>
@@ -1364,7 +1370,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
-        <v>44404</v>
+        <v>44400</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>112</v>
@@ -1377,7 +1383,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
-        <v>44406</v>
+        <v>44404</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>114</v>
@@ -1390,7 +1396,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
-        <v>44413</v>
+        <v>44406</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>116</v>
@@ -1403,7 +1409,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
-        <v>44417</v>
+        <v>44413</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>118</v>
@@ -1416,7 +1422,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
-        <v>44420</v>
+        <v>44417</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>120</v>
@@ -1429,20 +1435,23 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
-        <v>44430</v>
+        <v>44420</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
-        <v>44431</v>
+        <v>44430</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1452,47 +1461,47 @@
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
-        <v>44433</v>
+        <v>44431</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
-        <v>44438</v>
+        <v>44433</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
-        <v>44445</v>
+        <v>44438</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
-        <v>44447</v>
+        <v>44445</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1501,14 +1510,24 @@
       <c r="A67" s="2" t="n">
         <v>44447</v>
       </c>
-      <c r="B67" s="0" t="s">
-        <v>128</v>
-      </c>
       <c r="C67" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="n">
+        <v>44447</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1522,59 +1541,60 @@
     <hyperlink ref="C11" r:id="rId8" display="https://bit.ly/3bKR5h4"/>
     <hyperlink ref="C12" r:id="rId9" display="https://bit.ly/3bMiL5p"/>
     <hyperlink ref="C13" r:id="rId10" display="https://bit.ly/300F9oM"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://bit.ly/3BKJR7D"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://bit.ly/3CQ0jVi"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://bit.ly/3qc8YOl"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://bit.ly/2ZWlqHz"/>
-    <hyperlink ref="C18" r:id="rId15" display="https://bit.ly/3CQ0lMU"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://bit.ly/3wjbgMA"/>
-    <hyperlink ref="C20" r:id="rId17" display="https://bit.ly/3o0aYqs"/>
-    <hyperlink ref="C21" r:id="rId18" display="https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C23" r:id="rId20" display="https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C24" r:id="rId21" display="https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C25" r:id="rId22" display="https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C26" r:id="rId23" display="https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C27" r:id="rId24" display="https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C28" r:id="rId25" display="https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C29" r:id="rId26" display="https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C30" r:id="rId27" display="https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C31" r:id="rId28" display="https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C33" r:id="rId29" display="https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C34" r:id="rId30" display="https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C35" r:id="rId31" display="https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C36" r:id="rId32" display="https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C37" r:id="rId33" display="https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C38" r:id="rId34" display="https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C39" r:id="rId35" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C40" r:id="rId36" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C41" r:id="rId37" display="https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C42" r:id="rId38" display="https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C43" r:id="rId39" display="https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C44" r:id="rId40" display="https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C45" r:id="rId41" display="https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C46" r:id="rId42" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C47" r:id="rId43" display="https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C48" r:id="rId44" display="https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C49" r:id="rId45" display="https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C50" r:id="rId46" display="https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C51" r:id="rId47" display="https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C52" r:id="rId48" display="https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C53" r:id="rId49" display="https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C54" r:id="rId50" display="https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C55" r:id="rId51" display="https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C56" r:id="rId52" display="https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C57" r:id="rId53" display="https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C58" r:id="rId54" display="https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C59" r:id="rId55" display="https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C60" r:id="rId56" display="https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C61" r:id="rId57" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C14" r:id="rId11" display="https://bit.ly/3D4bYjE"/>
+    <hyperlink ref="C15" r:id="rId12" display="https://bit.ly/3BKJR7D"/>
+    <hyperlink ref="C16" r:id="rId13" display="https://bit.ly/3CQ0jVi"/>
+    <hyperlink ref="C17" r:id="rId14" display="https://bit.ly/3qc8YOl"/>
+    <hyperlink ref="C18" r:id="rId15" display="https://bit.ly/2ZWlqHz"/>
+    <hyperlink ref="C19" r:id="rId16" display="https://bit.ly/3CQ0lMU"/>
+    <hyperlink ref="C20" r:id="rId17" display="https://bit.ly/3wjbgMA"/>
+    <hyperlink ref="C21" r:id="rId18" display="https://bit.ly/3o0aYqs"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C23" r:id="rId20" display="https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C24" r:id="rId21" display="https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C25" r:id="rId22" display="https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C26" r:id="rId23" display="https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C27" r:id="rId24" display="https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C28" r:id="rId25" display="https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C29" r:id="rId26" display="https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C30" r:id="rId27" display="https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C31" r:id="rId28" display="https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C32" r:id="rId29" display="https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C34" r:id="rId30" display="https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C35" r:id="rId31" display="https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C36" r:id="rId32" display="https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C37" r:id="rId33" display="https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C38" r:id="rId34" display="https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C39" r:id="rId35" display="https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C40" r:id="rId36" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C41" r:id="rId37" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C42" r:id="rId38" display="https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C43" r:id="rId39" display="https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C44" r:id="rId40" display="https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C45" r:id="rId41" display="https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C46" r:id="rId42" display="https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C47" r:id="rId43" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C48" r:id="rId44" display="https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C49" r:id="rId45" display="https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C50" r:id="rId46" display="https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C51" r:id="rId47" display="https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C52" r:id="rId48" display="https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C53" r:id="rId49" display="https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C54" r:id="rId50" display="https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C55" r:id="rId51" display="https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C56" r:id="rId52" display="https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C57" r:id="rId53" display="https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C59" r:id="rId55" display="https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C60" r:id="rId56" display="https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C61" r:id="rId57" display="https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
     <hyperlink ref="C62" r:id="rId58" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C63" r:id="rId59" display="https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C64" r:id="rId60" display="https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C65" r:id="rId61" display="https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C66" r:id="rId62" display="https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C67" r:id="rId63" display="https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C64" r:id="rId60" display="https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C65" r:id="rId61" display="https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C66" r:id="rId62" display="https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C67" r:id="rId63" display="https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C68" r:id="rId64" display="https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -625,11 +625,11 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="16:16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -853,8 +853,12 @@
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>44480</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -626,10 +626,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -870,8 +870,12 @@
       <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>44511</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -626,10 +626,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="14:14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -887,8 +887,12 @@
       <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>44541</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -626,10 +626,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="17:17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
@@ -904,8 +904,12 @@
       <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>44541</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fullstack 6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4017712D-7364-417B-BC88-77916A700706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,413 +27,410 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="132">
   <si>
-    <t xml:space="preserve">Ngày</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tên bài</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link bài học</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link bai tap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoan thanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngay hoan thanh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/476672873686420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/479864406700600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 2 -flex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/481280199892354</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 3- clearfix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/482522506434790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 4 - layout</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/permalink/729233961119790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29/10/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 5- Background Property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/permalink/731952124181307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 6 -Pseudo Classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3nhaX0L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 7 - Pseudo Element</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/2ZjljVD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Css 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3Bu9RnH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PSD -&gt; HTML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3bKR5h4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3bMiL5p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/300F9oM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To Modest Partner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3D4bYjE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish Modest Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3BKJR7D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boostrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3CQ0jVi</t>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Tên bài</t>
+  </si>
+  <si>
+    <t>Link bài học</t>
+  </si>
+  <si>
+    <t>Link bai tap</t>
+  </si>
+  <si>
+    <t>Hoan thanh</t>
+  </si>
+  <si>
+    <t>Ngay hoan thanh</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/476672873686420</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>22/10/2021</t>
+  </si>
+  <si>
+    <t>Css 1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/479864406700600</t>
+  </si>
+  <si>
+    <t>23/10/2021</t>
+  </si>
+  <si>
+    <t>Css 2 -flex</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/481280199892354</t>
+  </si>
+  <si>
+    <t>24/10/2021</t>
+  </si>
+  <si>
+    <t>Css 3- clearfix</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/482522506434790</t>
+  </si>
+  <si>
+    <t>26/10/2021</t>
+  </si>
+  <si>
+    <t>Css 4 - layout</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/permalink/729233961119790</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>Css 5- Background Property</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/permalink/731952124181307</t>
+  </si>
+  <si>
+    <t>Css 6 -Pseudo Classes</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3nhaX0L</t>
+  </si>
+  <si>
+    <t>Css 7 - Pseudo Element</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2ZjljVD</t>
+  </si>
+  <si>
+    <t>Css 8</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3Bu9RnH</t>
+  </si>
+  <si>
+    <t>PSD -&gt; HTML</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3bKR5h4</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3bMiL5p</t>
+  </si>
+  <si>
+    <t>https://bit.ly/300F9oM</t>
+  </si>
+  <si>
+    <t>To Modest Partner</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3D4bYjE</t>
+  </si>
+  <si>
+    <t>Finish Modest Web</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3BKJR7D</t>
+  </si>
+  <si>
+    <t>Boostrap</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3CQ0jVi</t>
   </si>
   <si>
     <t xml:space="preserve">Javascript </t>
   </si>
   <si>
-    <t xml:space="preserve">https://bit.ly/3qc8YOl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javascript methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/2ZWlqHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOP in Javascript, Prototype, Loop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3CQ0lMU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HTML DOM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3wjbgMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bit.ly/3o0aYqs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Practice Part 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Practice Part 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vue for beginer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work with Vue (binding,directive,list rendering)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Practice with Vue (event modify, key modify, key event)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vue (methods, components, register component, style scoped)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t>https://bit.ly/3qc8YOl</t>
+  </si>
+  <si>
+    <t>Javascript methods</t>
+  </si>
+  <si>
+    <t>https://bit.ly/2ZWlqHz</t>
+  </si>
+  <si>
+    <t>OOP in Javascript, Prototype, Loop</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3CQ0lMU</t>
+  </si>
+  <si>
+    <t>HTML DOM</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3wjbgMA</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>https://bit.ly/3o0aYqs</t>
+  </si>
+  <si>
+    <t>Event Practice Part 1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Event Practice Part 2</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Vue for beginer</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Work with Vue (binding,directive,list rendering)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Practice with Vue (event modify, key modify, key event)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Vue (methods, components, register component, style scoped)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
   </si>
   <si>
     <t xml:space="preserve"> Vue lifecycle </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Custom Event ($root,$emit,$on,$parent)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vue router</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Package necessary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callback, promise, async, await</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VueX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/769338863775966/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VueX API (Mute)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Back-end with PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Function, version, scoped</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cookie, Session, Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t>https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Custom Event ($root,$emit,$on,$parent)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>vue router</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Package necessary</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Callback, promise, async, await</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>VueX</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/769338863775966/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>VueX API (Mute)</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Back-end with PHP</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Function, version, scoped</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Cookie, Session, Login</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
   </si>
   <si>
     <t xml:space="preserve">OOP 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OOP 2 và MVC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiết kế CSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">các lệnh CSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHP mysql</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laravel 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Last</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t>https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>OOP 2 và MVC</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Thiết kế CSDL</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>các lệnh CSDL</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>PHP mysql</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 1</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 3</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 4</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 5</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 6</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 7</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 8</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 9</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 10</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 11</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 12</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 13</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 14</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Laravel 15</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+  </si>
+  <si>
+    <t>Last</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -437,22 +439,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -467,16 +454,22 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -484,77 +477,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -613,44 +562,352 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="17:17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="7" style="0" width="8.6"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="52.77734375" customWidth="1"/>
+    <col min="3" max="3" width="76.21875" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="64" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -660,8 +917,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
         <v>44260</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -677,14 +934,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
         <v>44265</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -694,14 +951,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
         <v>44267</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -711,8 +968,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>44269</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -728,8 +985,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
         <v>44272</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -745,8 +1002,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
         <v>44277</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -758,12 +1015,12 @@
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>44238</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
         <v>44279</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -775,12 +1032,12 @@
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>44266</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
         <v>44282</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -792,12 +1049,12 @@
       <c r="E9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>44297</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
         <v>44284</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -809,12 +1066,12 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>44358</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8">
         <v>44286</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -826,12 +1083,12 @@
       <c r="E11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>44388</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8">
         <v>44291</v>
       </c>
       <c r="B12" s="1"/>
@@ -841,12 +1098,12 @@
       <c r="E12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>44450</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
         <v>44294</v>
       </c>
       <c r="B13" s="1"/>
@@ -856,12 +1113,12 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="5">
         <v>44480</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8">
         <v>44417</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -873,12 +1130,12 @@
       <c r="E14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="n">
+      <c r="F14" s="5">
         <v>44511</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>44299</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -890,12 +1147,12 @@
       <c r="E15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="n">
+      <c r="F15" s="5">
         <v>44541</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="8">
         <v>44303</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -907,12 +1164,12 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>44541</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
         <v>44310</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -924,8 +1181,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>44312</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -937,8 +1194,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
         <v>44314</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -950,8 +1207,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>44320</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -963,8 +1220,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
         <v>44322</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -976,8 +1233,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>44325</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -989,8 +1246,8 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
         <v>44325</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -1002,8 +1259,8 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
         <v>44328</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -1015,8 +1272,8 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
         <v>44329</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1028,8 +1285,8 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1041,8 +1298,8 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="n">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
         <v>44331</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1054,8 +1311,8 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="n">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
         <v>44334</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1067,8 +1324,8 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="n">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
         <v>44335</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1080,8 +1337,8 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="n">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
         <v>44339</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1093,8 +1350,8 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="n">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
         <v>44342</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1106,8 +1363,8 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6">
         <v>44342</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -1119,8 +1376,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="n">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
         <v>44347</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1132,8 +1389,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="n">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
         <v>44350</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1145,8 +1402,8 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="n">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
         <v>44352</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1158,8 +1415,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2" t="n">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
         <v>44356</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1171,8 +1428,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="n">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1184,8 +1441,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2" t="n">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
         <v>44358</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1197,8 +1454,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="n">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
         <v>44362</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1210,22 +1467,22 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2" t="n">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
         <v>44368</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1237,8 +1494,8 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2" t="n">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
         <v>44370</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1250,8 +1507,8 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2" t="n">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
         <v>44372</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1260,11 +1517,11 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
         <v>44377</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -1273,11 +1530,11 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2" t="n">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
         <v>44380</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" t="s">
         <v>95</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -1286,18 +1543,18 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2" t="n">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
         <v>44384</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="B48" t="s">
         <v>98</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -1306,11 +1563,11 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="n">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
         <v>44387</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" t="s">
         <v>100</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -1319,11 +1576,11 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2" t="n">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
         <v>44390</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>102</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1332,11 +1589,11 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2" t="n">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
         <v>44392</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -1345,11 +1602,11 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2" t="n">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
         <v>44394</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1358,8 +1615,8 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="n">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
         <v>44398</v>
       </c>
       <c r="B53" s="7" t="s">
@@ -1371,11 +1628,11 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="n">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
         <v>44399</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" t="s">
         <v>110</v>
       </c>
       <c r="C54" s="4" t="s">
@@ -1384,11 +1641,11 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="n">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
         <v>44400</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" t="s">
         <v>112</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -1397,11 +1654,11 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="n">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
         <v>44404</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>114</v>
       </c>
       <c r="C56" s="4" t="s">
@@ -1410,11 +1667,11 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="n">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
         <v>44406</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" t="s">
         <v>116</v>
       </c>
       <c r="C57" s="4" t="s">
@@ -1423,11 +1680,11 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="n">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>44413</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" t="s">
         <v>118</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -1436,11 +1693,11 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
         <v>44417</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" t="s">
         <v>120</v>
       </c>
       <c r="C59" s="4" t="s">
@@ -1449,11 +1706,11 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
         <v>44420</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="B60" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
@@ -1462,8 +1719,8 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
         <v>44430</v>
       </c>
       <c r="C61" s="4" t="s">
@@ -1472,8 +1729,8 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -1482,8 +1739,8 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
         <v>44431</v>
       </c>
       <c r="C63" s="4" t="s">
@@ -1492,8 +1749,8 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
         <v>44433</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -1502,8 +1759,8 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
         <v>44438</v>
       </c>
       <c r="C65" s="4" t="s">
@@ -1512,8 +1769,8 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
         <v>44445</v>
       </c>
       <c r="C66" s="4" t="s">
@@ -1522,8 +1779,8 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
         <v>44447</v>
       </c>
       <c r="C67" s="4" t="s">
@@ -1532,11 +1789,11 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
         <v>44447</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="B68" t="s">
         <v>130</v>
       </c>
       <c r="C68" s="4" t="s">
@@ -1547,77 +1804,72 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/476672873686420"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/482522506434790"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://www.facebook.com/groups/719796585396861/permalink/729233961119790"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://www.facebook.com/groups/719796585396861/permalink/731952124181307"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://bit.ly/3nhaX0L"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://bit.ly/2ZjljVD"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://bit.ly/3Bu9RnH"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://bit.ly/3bKR5h4"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://bit.ly/3bMiL5p"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://bit.ly/300F9oM"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://bit.ly/3D4bYjE"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://bit.ly/3BKJR7D"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://bit.ly/3CQ0jVi"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://bit.ly/3qc8YOl"/>
-    <hyperlink ref="C18" r:id="rId15" display="https://bit.ly/2ZWlqHz"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://bit.ly/3CQ0lMU"/>
-    <hyperlink ref="C20" r:id="rId17" display="https://bit.ly/3wjbgMA"/>
-    <hyperlink ref="C21" r:id="rId18" display="https://bit.ly/3o0aYqs"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C23" r:id="rId20" display="https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C24" r:id="rId21" display="https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C25" r:id="rId22" display="https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C26" r:id="rId23" display="https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C27" r:id="rId24" display="https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C28" r:id="rId25" display="https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C29" r:id="rId26" display="https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C30" r:id="rId27" display="https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C31" r:id="rId28" display="https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C32" r:id="rId29" display="https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C34" r:id="rId30" display="https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C35" r:id="rId31" display="https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C36" r:id="rId32" display="https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C37" r:id="rId33" display="https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C38" r:id="rId34" display="https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C39" r:id="rId35" display="https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C40" r:id="rId36" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C41" r:id="rId37" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C42" r:id="rId38" display="https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C43" r:id="rId39" display="https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C44" r:id="rId40" display="https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C45" r:id="rId41" display="https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C46" r:id="rId42" display="https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C47" r:id="rId43" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C48" r:id="rId44" display="https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C49" r:id="rId45" display="https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C50" r:id="rId46" display="https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C51" r:id="rId47" display="https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C52" r:id="rId48" display="https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C53" r:id="rId49" display="https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C54" r:id="rId50" display="https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C55" r:id="rId51" display="https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C56" r:id="rId52" display="https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C57" r:id="rId53" display="https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C58" r:id="rId54" display="https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C59" r:id="rId55" display="https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C60" r:id="rId56" display="https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C61" r:id="rId57" display="https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C62" r:id="rId58" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C63" r:id="rId59" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C64" r:id="rId60" display="https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C65" r:id="rId61" display="https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C66" r:id="rId62" display="https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C67" r:id="rId63" display="https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C68" r:id="rId64" display="https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C23" r:id="rId20" display="https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C24" r:id="rId21" display="https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C25" r:id="rId22" display="https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C26" r:id="rId23" display="https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C27" r:id="rId24" display="https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C28" r:id="rId25" display="https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C29" r:id="rId26" display="https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C30" r:id="rId27" display="https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C31" r:id="rId28" display="https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C32" r:id="rId29" display="https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C34" r:id="rId30" display="https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C35" r:id="rId31" display="https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C36" r:id="rId32" display="https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C37" r:id="rId33" display="https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C38" r:id="rId34" display="https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C39" r:id="rId35" display="https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C40" r:id="rId36" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C41" r:id="rId37" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C42" r:id="rId38" display="https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C43" r:id="rId39" display="https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C44" r:id="rId40" display="https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C45" r:id="rId41" display="https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C46" r:id="rId42" display="https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C47" r:id="rId43" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C48" r:id="rId44" display="https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C49" r:id="rId45" display="https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C50" r:id="rId46" display="https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C51" r:id="rId47" display="https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C52" r:id="rId48" display="https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C53" r:id="rId49" display="https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C54" r:id="rId50" display="https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C55" r:id="rId51" display="https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C56" r:id="rId52" display="https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C57" r:id="rId53" display="https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C58" r:id="rId54" display="https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C59" r:id="rId55" display="https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C60" r:id="rId56" display="https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C61" r:id="rId57" display="https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C62" r:id="rId58" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C63" r:id="rId59" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C64" r:id="rId60" display="https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C65" r:id="rId61" display="https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C66" r:id="rId62" display="https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C67" r:id="rId63" display="https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C68" r:id="rId64" display="https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://bit.ly/3CQ0lMU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/11/2021</t>
   </si>
   <si>
     <t xml:space="preserve">HTML DOM</t>
@@ -639,10 +642,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.77"/>
@@ -968,18 +971,22 @@
       <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>44320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -989,10 +996,10 @@
         <v>44322</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1002,10 +1009,10 @@
         <v>44325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1015,10 +1022,10 @@
         <v>44325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1028,10 +1035,10 @@
         <v>44328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1041,10 +1048,10 @@
         <v>44329</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1054,10 +1061,10 @@
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1067,10 +1074,10 @@
         <v>44331</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1080,10 +1087,10 @@
         <v>44334</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1093,10 +1100,10 @@
         <v>44335</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1106,10 +1113,10 @@
         <v>44339</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1119,10 +1126,10 @@
         <v>44342</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1132,10 +1139,10 @@
         <v>44342</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1145,10 +1152,10 @@
         <v>44347</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1158,10 +1165,10 @@
         <v>44350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1171,10 +1178,10 @@
         <v>44352</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1184,10 +1191,10 @@
         <v>44356</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1197,10 +1204,10 @@
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1210,10 +1217,10 @@
         <v>44358</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1223,24 +1230,24 @@
         <v>44362</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1250,10 +1257,10 @@
         <v>44368</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1263,10 +1270,10 @@
         <v>44370</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1276,7 +1283,7 @@
         <v>44372</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1286,10 +1293,10 @@
         <v>44377</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1299,17 +1306,17 @@
         <v>44380</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1319,10 +1326,10 @@
         <v>44384</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1332,10 +1339,10 @@
         <v>44387</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1345,10 +1352,10 @@
         <v>44390</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1358,10 +1365,10 @@
         <v>44392</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1371,10 +1378,10 @@
         <v>44394</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1384,10 +1391,10 @@
         <v>44398</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1397,10 +1404,10 @@
         <v>44399</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1410,10 +1417,10 @@
         <v>44400</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1423,10 +1430,10 @@
         <v>44404</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1436,10 +1443,10 @@
         <v>44406</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -1449,10 +1456,10 @@
         <v>44413</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1462,10 +1469,10 @@
         <v>44417</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1475,10 +1482,10 @@
         <v>44420</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1488,7 +1495,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1498,7 +1505,7 @@
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1508,7 +1515,7 @@
         <v>44431</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1518,7 +1525,7 @@
         <v>44433</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1528,7 +1535,7 @@
         <v>44438</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1538,7 +1545,7 @@
         <v>44445</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1548,7 +1555,7 @@
         <v>44447</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1558,10 +1565,10 @@
         <v>44447</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://bit.ly/3wjbgMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/11/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Event</t>
@@ -642,10 +645,10 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.77"/>
@@ -988,18 +991,22 @@
       <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>44322</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1009,10 +1016,10 @@
         <v>44325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1022,10 +1029,10 @@
         <v>44325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1035,10 +1042,10 @@
         <v>44328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1048,10 +1055,10 @@
         <v>44329</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1061,10 +1068,10 @@
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1074,10 +1081,10 @@
         <v>44331</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1087,10 +1094,10 @@
         <v>44334</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1100,10 +1107,10 @@
         <v>44335</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1113,10 +1120,10 @@
         <v>44339</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1126,10 +1133,10 @@
         <v>44342</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1139,10 +1146,10 @@
         <v>44342</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1152,10 +1159,10 @@
         <v>44347</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1165,10 +1172,10 @@
         <v>44350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1178,10 +1185,10 @@
         <v>44352</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1191,10 +1198,10 @@
         <v>44356</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1204,10 +1211,10 @@
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1217,10 +1224,10 @@
         <v>44358</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1230,24 +1237,24 @@
         <v>44362</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1257,10 +1264,10 @@
         <v>44368</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1270,10 +1277,10 @@
         <v>44370</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1283,7 +1290,7 @@
         <v>44372</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1293,10 +1300,10 @@
         <v>44377</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1306,17 +1313,17 @@
         <v>44380</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1326,10 +1333,10 @@
         <v>44384</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1339,10 +1346,10 @@
         <v>44387</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1352,10 +1359,10 @@
         <v>44390</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1365,10 +1372,10 @@
         <v>44392</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1378,10 +1385,10 @@
         <v>44394</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1391,10 +1398,10 @@
         <v>44398</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1404,10 +1411,10 @@
         <v>44399</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1417,10 +1424,10 @@
         <v>44400</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1430,10 +1437,10 @@
         <v>44404</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1443,10 +1450,10 @@
         <v>44406</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -1456,10 +1463,10 @@
         <v>44413</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1469,10 +1476,10 @@
         <v>44417</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1482,10 +1489,10 @@
         <v>44420</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1495,7 +1502,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1505,7 +1512,7 @@
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1515,7 +1522,7 @@
         <v>44431</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1525,7 +1532,7 @@
         <v>44433</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1535,7 +1542,7 @@
         <v>44438</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1545,7 +1552,7 @@
         <v>44445</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1555,7 +1562,7 @@
         <v>44447</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1565,10 +1572,10 @@
         <v>44447</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://bit.ly/3o0aYqs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/11/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Event Practice Part 1</t>
@@ -644,11 +647,11 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.77"/>
@@ -1008,18 +1011,22 @@
       <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>44325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1029,10 +1036,10 @@
         <v>44325</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1042,10 +1049,10 @@
         <v>44328</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1055,10 +1062,10 @@
         <v>44329</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1068,10 +1075,10 @@
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1081,10 +1088,10 @@
         <v>44331</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1094,10 +1101,10 @@
         <v>44334</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1107,10 +1114,10 @@
         <v>44335</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1120,10 +1127,10 @@
         <v>44339</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1133,10 +1140,10 @@
         <v>44342</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1146,10 +1153,10 @@
         <v>44342</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1159,10 +1166,10 @@
         <v>44347</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -1172,10 +1179,10 @@
         <v>44350</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -1185,10 +1192,10 @@
         <v>44352</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -1198,10 +1205,10 @@
         <v>44356</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -1211,10 +1218,10 @@
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -1224,10 +1231,10 @@
         <v>44358</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -1237,24 +1244,24 @@
         <v>44362</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1264,10 +1271,10 @@
         <v>44368</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -1277,10 +1284,10 @@
         <v>44370</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -1290,7 +1297,7 @@
         <v>44372</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -1300,10 +1307,10 @@
         <v>44377</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -1313,17 +1320,17 @@
         <v>44380</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -1333,10 +1340,10 @@
         <v>44384</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -1346,10 +1353,10 @@
         <v>44387</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -1359,10 +1366,10 @@
         <v>44390</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -1372,10 +1379,10 @@
         <v>44392</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1385,10 +1392,10 @@
         <v>44394</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -1398,10 +1405,10 @@
         <v>44398</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -1411,10 +1418,10 @@
         <v>44399</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -1424,10 +1431,10 @@
         <v>44400</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -1437,10 +1444,10 @@
         <v>44404</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -1450,10 +1457,10 @@
         <v>44406</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -1463,10 +1470,10 @@
         <v>44413</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -1476,10 +1483,10 @@
         <v>44417</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
@@ -1489,10 +1496,10 @@
         <v>44420</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -1502,7 +1509,7 @@
         <v>44430</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1512,7 +1519,7 @@
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -1522,7 +1529,7 @@
         <v>44431</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
@@ -1532,7 +1539,7 @@
         <v>44433</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -1542,7 +1549,7 @@
         <v>44438</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1552,7 +1559,7 @@
         <v>44445</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -1562,7 +1569,7 @@
         <v>44447</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -1572,10 +1579,10 @@
         <v>44447</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Link bài học</t>
   </si>
   <si>
+    <t xml:space="preserve">Link bài học 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Link bai tap</t>
   </si>
   <si>
@@ -184,250 +187,250 @@
     <t xml:space="preserve">17/11/2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Event Practice Part 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event Practice Part 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">Event Practice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3cjlJ1F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3nouvl9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19/11/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Vue for beginer</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3nniIU1</t>
   </si>
   <si>
     <t xml:space="preserve">Work with Vue (binding,directive,list rendering)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3ozxQxi</t>
   </si>
   <si>
     <t xml:space="preserve">Practice with Vue (event modify, key modify, key event)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3kLEJdE</t>
   </si>
   <si>
     <t xml:space="preserve">Vue (methods, components, register component, style scoped)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/30w4CaE</t>
   </si>
   <si>
     <t xml:space="preserve"> Vue lifecycle </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3HvbipZ</t>
   </si>
   <si>
     <t xml:space="preserve">Custom Event ($root,$emit,$on,$parent)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3CscG97</t>
   </si>
   <si>
     <t xml:space="preserve">vue router</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3x3fY1C</t>
   </si>
   <si>
     <t xml:space="preserve">Package necessary</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/30wHAje</t>
   </si>
   <si>
     <t xml:space="preserve">Callback, promise, async, await</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3DpqdiY</t>
   </si>
   <si>
     <t xml:space="preserve">VueX</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/769338863775966/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3npu6Pj</t>
   </si>
   <si>
     <t xml:space="preserve">VueX API (Mute)</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/320tsQ4</t>
   </si>
   <si>
     <t xml:space="preserve">Back-end with PHP</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3wWBg0w</t>
   </si>
   <si>
     <t xml:space="preserve">Function, version, scoped</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3HxHOYH</t>
   </si>
   <si>
     <t xml:space="preserve">Cookie, Session, Login</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3kKXkq2</t>
   </si>
   <si>
     <t xml:space="preserve">OOP 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3qLBPt7</t>
   </si>
   <si>
     <t xml:space="preserve">OOP 2 và MVC</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3Crjns7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/30Gb66A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3nv7jSf</t>
   </si>
   <si>
     <t xml:space="preserve">Thiết kế CSDL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3ckiBSS</t>
   </si>
   <si>
     <t xml:space="preserve">các lệnh CSDL</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3HFAgmK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3npuFsp</t>
   </si>
   <si>
     <t xml:space="preserve">PHP mysql</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3Fq2901</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3HsS8RF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/30zJ7W1</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3cjw2Cz</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3oBaLKy</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3nlCIXk</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 6</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3oB47Uw</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 7</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3oEjknH</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3DrvPta</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 9</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3nnlMzv</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 10</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/2YW0cZD</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 11</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3cifFq9</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 12</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3cnLOfL</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 13</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3HFBL4m</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 14</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3Dr3t2a</t>
   </si>
   <si>
     <t xml:space="preserve">Laravel 15</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3noyVbP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3oUH07N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3x3irJq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3Dt39jg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3DqkucX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3nq11mW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bit.ly/3wVaDZU</t>
   </si>
   <si>
     <t xml:space="preserve">Last</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R</t>
+    <t xml:space="preserve">https://bit.ly/3qMAlz0</t>
   </si>
 </sst>
 </file>
@@ -645,24 +648,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="23:23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="7" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="8" style="0" width="8.56"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -675,918 +678,983 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>44260</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>44267</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>44269</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>44272</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D6" s="4"/>
       <c r="F6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5" t="n">
         <v>44238</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>44279</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="n">
         <v>44266</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>44282</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="5" t="n">
         <v>44297</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>44284</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="5" t="n">
         <v>44358</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>44286</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="5" t="n">
         <v>44388</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>44291</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="5" t="n">
         <v>44450</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>44294</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="5" t="n">
         <v>44480</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>44417</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="5" t="n">
         <v>44511</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>44299</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="n">
+        <v>38</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="5" t="n">
         <v>44541</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>44303</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="5" t="n">
         <v>44541</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>44310</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D17" s="4"/>
       <c r="F17" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>44312</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>44314</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="D19" s="4"/>
       <c r="F19" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>44320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="D20" s="4"/>
       <c r="F20" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>44322</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D21" s="4"/>
       <c r="F21" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>44325</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
-        <v>44325</v>
+        <v>44328</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="n">
-        <v>44328</v>
+        <v>60</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="n">
+        <v>44329</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E24" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="D24" s="4"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="n">
-        <v>44329</v>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="n">
+        <v>44331</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="D25" s="4"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="n">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="n">
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D26" s="4"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="n">
-        <v>44331</v>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="n">
+        <v>44334</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E27" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D27" s="4"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
-        <v>44334</v>
+        <v>44335</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="D28" s="4"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
-        <v>44335</v>
+        <v>44339</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="D29" s="4"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
-        <v>44339</v>
+        <v>44342</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="D30" s="4"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="7" t="n">
         <v>44342</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>72</v>
+      <c r="B31" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="D31" s="4"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
-        <v>44342</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>74</v>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="n">
+        <v>44347</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="D32" s="4"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
-        <v>44347</v>
+        <v>44350</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E33" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D33" s="4"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
-        <v>44350</v>
+        <v>44352</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="1"/>
+        <v>82</v>
+      </c>
+      <c r="D34" s="4"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
-        <v>44352</v>
+        <v>44356</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="D35" s="4"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
-        <v>44356</v>
+        <v>44358</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="D36" s="4"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="D37" s="4"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
-        <v>44358</v>
+        <v>44362</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="D38" s="4"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="n">
-        <v>44362</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="1"/>
+        <v>91</v>
+      </c>
+      <c r="D39" s="4"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E40" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="D40" s="4"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="n">
+        <v>44368</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="C41" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="D41" s="4"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
-        <v>44368</v>
+        <v>44370</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="D42" s="4"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
-        <v>44370</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>44372</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D43" s="4"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
-        <v>44372</v>
+        <v>44377</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>98</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
-        <v>44377</v>
+        <v>44380</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="D45" s="4"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="n">
-        <v>44380</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>99</v>
-      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E46" s="1"/>
+        <v>102</v>
+      </c>
+      <c r="D46" s="4"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="n">
+        <v>44384</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>103</v>
+      </c>
       <c r="C47" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="D47" s="4"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
-        <v>44384</v>
+        <v>44387</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="D48" s="4"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
-        <v>44387</v>
+        <v>44390</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E49" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="D49" s="4"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
-        <v>44390</v>
+        <v>44392</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="1"/>
+        <v>110</v>
+      </c>
+      <c r="D50" s="4"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
-        <v>44392</v>
+        <v>44394</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="D51" s="4"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
-        <v>44394</v>
-      </c>
-      <c r="B52" s="0" t="s">
-        <v>110</v>
+        <v>44398</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="D52" s="4"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
-        <v>44398</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>112</v>
+        <v>44399</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="1"/>
+        <v>116</v>
+      </c>
+      <c r="D53" s="4"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
-        <v>44399</v>
+        <v>44400</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E54" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="D54" s="4"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
-        <v>44400</v>
+        <v>44404</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E55" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="D55" s="4"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
-        <v>44404</v>
+        <v>44406</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="D56" s="4"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
-        <v>44406</v>
+        <v>44413</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="1"/>
+        <v>124</v>
+      </c>
+      <c r="D57" s="4"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
-        <v>44413</v>
+        <v>44417</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>126</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
-        <v>44417</v>
+        <v>44420</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>128</v>
+      </c>
+      <c r="D59" s="4"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
-        <v>44420</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>126</v>
+        <v>44430</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="D60" s="4"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
-        <v>44430</v>
+        <v>44431</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="D61" s="4"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E62" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="D62" s="4"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
-        <v>44431</v>
+        <v>44433</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="D63" s="4"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
-        <v>44433</v>
+        <v>44438</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
-        <v>44438</v>
+        <v>44445</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E65" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="D65" s="4"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
-        <v>44445</v>
+        <v>44447</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E66" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="D66" s="4"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>44447</v>
       </c>
+      <c r="B67" s="0" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="D67" s="4"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="6" t="n">
-        <v>44447</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/476672873686420"/>
@@ -1607,52 +1675,53 @@
     <hyperlink ref="C19" r:id="rId16" display="https://bit.ly/3CQ0lMU"/>
     <hyperlink ref="C20" r:id="rId17" display="https://bit.ly/3wjbgMA"/>
     <hyperlink ref="C21" r:id="rId18" display="https://bit.ly/3o0aYqs"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://www.facebook.com/groups/719796585396861/posts/757470658296120/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C23" r:id="rId20" display="https://www.facebook.com/groups/719796585396861/posts/757471658296020/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C24" r:id="rId21" display="https://www.facebook.com/groups/719796585396861/posts/758943861482133/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C25" r:id="rId22" display="https://www.facebook.com/groups/719796585396861/posts/759848621391657/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C26" r:id="rId23" display="https://www.facebook.com/groups/719796585396861/posts/760450447998141/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C27" r:id="rId24" display="https://www.facebook.com/groups/719796585396861/posts/760451474664705/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C28" r:id="rId25" display="https://www.facebook.com/groups/719796585396861/posts/762246527818533/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C29" r:id="rId26" display="https://www.facebook.com/groups/719796585396861/posts/763092167733969/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C30" r:id="rId27" display="https://www.facebook.com/groups/719796585396861/posts/765082854201567/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C31" r:id="rId28" display="https://www.facebook.com/groups/719796585396861/posts/766623154047537/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C32" r:id="rId29" display="https://www.facebook.com/groups/719796585396861/posts/766745787368607/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C34" r:id="rId30" display="https://www.facebook.com/groups/719796585396861/posts/770587823651070/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C35" r:id="rId31" display="https://www.facebook.com/groups/719796585396861/posts/771850480191471/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C36" r:id="rId32" display="https://www.facebook.com/groups/719796585396861/posts/774043973305455/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C37" r:id="rId33" display="https://www.facebook.com/groups/719796585396861/posts/775340629842456/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C38" r:id="rId34" display="https://www.facebook.com/groups/719796585396861/posts/775343679842151/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C39" r:id="rId35" display="https://www.facebook.com/groups/719796585396861/posts/776958023014050/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C40" r:id="rId36" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451224382897936/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C41" r:id="rId37" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/451939912826383/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C42" r:id="rId38" display="https://www.facebook.com/groups/719796585396861/posts/780729945970191/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C43" r:id="rId39" display="https://www.facebook.com/groups/719796585396861/posts/781950372514815/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C44" r:id="rId40" display="https://www.facebook.com/groups/719796585396861/posts/783083979068121/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C45" r:id="rId41" display="https://www.facebook.com/groups/719796585396861/posts/786112345431951/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C46" r:id="rId42" display="https://www.facebook.com/groups/719796585396861/posts/787332301976622/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C47" r:id="rId43" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/4117628618351485/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C48" r:id="rId44" display="https://www.facebook.com/groups/719796585396861/posts/790135605029625/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C49" r:id="rId45" display="https://www.facebook.com/groups/719796585396861/posts/791535414889644/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C50" r:id="rId46" display="https://www.facebook.com/groups/719796585396861/posts/793665564676629/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C51" r:id="rId47" display="https://www.facebook.com/groups/719796585396861/posts/794861981223654/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C52" r:id="rId48" display="https://www.facebook.com/groups/719796585396861/posts/795848254458360/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C53" r:id="rId49" display="https://www.facebook.com/groups/719796585396861/posts/797906414252544/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C54" r:id="rId50" display="https://www.facebook.com/groups/719796585396861/posts/799149700794882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C55" r:id="rId51" display="https://www.facebook.com/groups/719796585396861/posts/799941137382405/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C56" r:id="rId52" display="https://www.facebook.com/groups/719796585396861/posts/802255720484280/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C57" r:id="rId53" display="https://www.facebook.com/groups/719796585396861/posts/804010013642184/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C58" r:id="rId54" display="https://www.facebook.com/groups/719796585396861/posts/807818849927967/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C59" r:id="rId55" display="https://www.facebook.com/groups/719796585396861/posts/810516396324879/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C60" r:id="rId56" display="https://www.facebook.com/groups/719796585396861/posts/812625016114017/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C61" r:id="rId57" display="https://www.facebook.com/groups/719796585396861/posts/819698415406677/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C62" r:id="rId58" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C63" r:id="rId59" display="https://www.facebook.com/groups/719796585396861/posts/825190571524128/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C64" r:id="rId60" display="https://www.facebook.com/groups/719796585396861/posts/825191604857358/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C65" r:id="rId61" display="https://www.facebook.com/groups/719796585396861/posts/825193031523882/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C66" r:id="rId62" display="https://www.facebook.com/groups/719796585396861/posts/830634487646403/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C67" r:id="rId63" display="https://www.facebook.com/groups/719796585396861/posts/831201290923056/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
-    <hyperlink ref="C68" r:id="rId64" display="https://www.facebook.com/groups/719796585396861/posts/833155334060985/?__cft__[0]=AZW_lWvmjlLluOqcM09Sff-7s3wUAlyazUIJaZVxfbrs_pmZVtbIIdzaHycZbFZEa0ga2MDkKTuZ-6H2GxLcKT9GTBOKCSgbHzbifM3PK2Hph-DTbGPMxRdYgE50OCGfYlC7AbLUBfh-5XFolJ42ZbW27lxvbwgVS-AQHp8pX-wZ2AGCqD0JdM3_wlE9rNTSreb4CugPIFMlt7C6Zz7pThIk&amp;__tn__=-UK-R"/>
+    <hyperlink ref="C22" r:id="rId19" display="https://bit.ly/3cjlJ1F"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://bit.ly/3nouvl9"/>
+    <hyperlink ref="C23" r:id="rId21" display="https://bit.ly/3nniIU1"/>
+    <hyperlink ref="C24" r:id="rId22" display="https://bit.ly/3ozxQxi"/>
+    <hyperlink ref="C25" r:id="rId23" display="https://bit.ly/3kLEJdE"/>
+    <hyperlink ref="C26" r:id="rId24" display="https://bit.ly/30w4CaE"/>
+    <hyperlink ref="C27" r:id="rId25" display="https://bit.ly/3HvbipZ"/>
+    <hyperlink ref="C28" r:id="rId26" display="https://bit.ly/3CscG97"/>
+    <hyperlink ref="C29" r:id="rId27" display="https://bit.ly/3x3fY1C"/>
+    <hyperlink ref="C30" r:id="rId28" display="https://bit.ly/30wHAje"/>
+    <hyperlink ref="C31" r:id="rId29" display="https://bit.ly/3DpqdiY"/>
+    <hyperlink ref="C32" r:id="rId30" display="https://bit.ly/3npu6Pj"/>
+    <hyperlink ref="C33" r:id="rId31" display="https://bit.ly/320tsQ4"/>
+    <hyperlink ref="C34" r:id="rId32" display="https://bit.ly/3wWBg0w"/>
+    <hyperlink ref="C35" r:id="rId33" display="https://bit.ly/3HxHOYH"/>
+    <hyperlink ref="C36" r:id="rId34" display="https://bit.ly/3kKXkq2"/>
+    <hyperlink ref="C37" r:id="rId35" display="https://bit.ly/3qLBPt7"/>
+    <hyperlink ref="C38" r:id="rId36" display="https://bit.ly/3Crjns7"/>
+    <hyperlink ref="C39" r:id="rId37" display="https://bit.ly/30Gb66A"/>
+    <hyperlink ref="C40" r:id="rId38" display="https://bit.ly/3nv7jSf"/>
+    <hyperlink ref="C41" r:id="rId39" display="https://bit.ly/3ckiBSS"/>
+    <hyperlink ref="C42" r:id="rId40" display="https://bit.ly/3HFAgmK"/>
+    <hyperlink ref="C43" r:id="rId41" display="https://bit.ly/3npuFsp"/>
+    <hyperlink ref="C44" r:id="rId42" display="https://bit.ly/3Fq2901"/>
+    <hyperlink ref="C45" r:id="rId43" display="https://bit.ly/3HsS8RF"/>
+    <hyperlink ref="C46" r:id="rId44" display="https://bit.ly/30zJ7W1"/>
+    <hyperlink ref="C47" r:id="rId45" display="https://bit.ly/3cjw2Cz"/>
+    <hyperlink ref="C48" r:id="rId46" display="https://bit.ly/3oBaLKy"/>
+    <hyperlink ref="C49" r:id="rId47" display="https://bit.ly/3nlCIXk"/>
+    <hyperlink ref="C50" r:id="rId48" display="https://bit.ly/3oB47Uw"/>
+    <hyperlink ref="C51" r:id="rId49" display="https://bit.ly/3oEjknH"/>
+    <hyperlink ref="C52" r:id="rId50" display="https://bit.ly/3DrvPta"/>
+    <hyperlink ref="C53" r:id="rId51" display="https://bit.ly/3nnlMzv"/>
+    <hyperlink ref="C54" r:id="rId52" display="https://bit.ly/2YW0cZD"/>
+    <hyperlink ref="C55" r:id="rId53" display="https://bit.ly/3cifFq9"/>
+    <hyperlink ref="C56" r:id="rId54" display="https://bit.ly/3cnLOfL"/>
+    <hyperlink ref="C57" r:id="rId55" display="https://bit.ly/3HFBL4m"/>
+    <hyperlink ref="C58" r:id="rId56" display="https://bit.ly/3Dr3t2a"/>
+    <hyperlink ref="C59" r:id="rId57" display="https://bit.ly/3noyVbP"/>
+    <hyperlink ref="C60" r:id="rId58" display="https://bit.ly/3oUH07N"/>
+    <hyperlink ref="C61" r:id="rId59" display="https://bit.ly/3x3irJq"/>
+    <hyperlink ref="C62" r:id="rId60" display="https://bit.ly/3x3irJq"/>
+    <hyperlink ref="C63" r:id="rId61" display="https://bit.ly/3Dt39jg"/>
+    <hyperlink ref="C64" r:id="rId62" display="https://bit.ly/3DqkucX"/>
+    <hyperlink ref="C65" r:id="rId63" display="https://bit.ly/3nq11mW"/>
+    <hyperlink ref="C66" r:id="rId64" display="https://bit.ly/3wVaDZU"/>
+    <hyperlink ref="C67" r:id="rId65" display="https://bit.ly/3qMAlz0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">Link bài học 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Link bai tap</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hoan thanh</t>
   </si>
   <si>
@@ -46,7 +43,7 @@
     <t xml:space="preserve">HTML</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/476672873686420</t>
+    <t xml:space="preserve">https://bit.ly/3oLw3Fp</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -58,7 +55,7 @@
     <t xml:space="preserve">Css 1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/479864406700600</t>
+    <t xml:space="preserve">https://bit.ly/3CvNrCT</t>
   </si>
   <si>
     <t xml:space="preserve">23/10/2021</t>
@@ -67,7 +64,7 @@
     <t xml:space="preserve">Css 2 -flex</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/481280199892354</t>
+    <t xml:space="preserve">https://bit.ly/3crEkIH</t>
   </si>
   <si>
     <t xml:space="preserve">24/10/2021</t>
@@ -76,7 +73,7 @@
     <t xml:space="preserve">Css 3- clearfix</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/nguyen.laptrinhvientv/videos/482522506434790</t>
+    <t xml:space="preserve">https://bit.ly/30MjKR3</t>
   </si>
   <si>
     <t xml:space="preserve">26/10/2021</t>
@@ -85,7 +82,7 @@
     <t xml:space="preserve">Css 4 - layout</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/permalink/729233961119790</t>
+    <t xml:space="preserve">https://bit.ly/3qS991U</t>
   </si>
   <si>
     <t xml:space="preserve">29/10/2021</t>
@@ -94,7 +91,7 @@
     <t xml:space="preserve">Css 5- Background Property</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.facebook.com/groups/719796585396861/permalink/731952124181307</t>
+    <t xml:space="preserve">https://bit.ly/3qZhDnA</t>
   </si>
   <si>
     <t xml:space="preserve">Css 6 -Pseudo Classes</t>
@@ -648,21 +645,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="23:23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="22:22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="76.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="8" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="7" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,14 +676,11 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,17 +688,17 @@
         <v>44260</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,16 +706,16 @@
         <v>44265</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,16 +723,16 @@
         <v>44267</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -745,17 +740,17 @@
         <v>44269</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,17 +758,17 @@
         <v>44272</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,16 +776,16 @@
         <v>44277</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" s="4"/>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="E7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="5" t="n">
         <v>44238</v>
       </c>
     </row>
@@ -799,16 +794,16 @@
         <v>44279</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="D8" s="4"/>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="E8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="5" t="n">
         <v>44266</v>
       </c>
     </row>
@@ -817,16 +812,16 @@
         <v>44282</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="4"/>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="5" t="n">
         <v>44297</v>
       </c>
     </row>
@@ -835,16 +830,16 @@
         <v>44284</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" s="4"/>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="5" t="n">
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="5" t="n">
         <v>44358</v>
       </c>
     </row>
@@ -853,16 +848,16 @@
         <v>44286</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="D11" s="4"/>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5" t="n">
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="5" t="n">
         <v>44388</v>
       </c>
     </row>
@@ -872,13 +867,13 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5" t="n">
+      <c r="E12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="5" t="n">
         <v>44450</v>
       </c>
     </row>
@@ -888,13 +883,13 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="5" t="n">
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="5" t="n">
         <v>44480</v>
       </c>
     </row>
@@ -903,16 +898,16 @@
         <v>44417</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="4"/>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="5" t="n">
+      <c r="E14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5" t="n">
         <v>44511</v>
       </c>
     </row>
@@ -921,16 +916,16 @@
         <v>44299</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="4"/>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="5" t="n">
+      <c r="E15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="5" t="n">
         <v>44541</v>
       </c>
     </row>
@@ -939,16 +934,16 @@
         <v>44303</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="4"/>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="5" t="n">
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="n">
         <v>44541</v>
       </c>
     </row>
@@ -957,17 +952,17 @@
         <v>44310</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,17 +970,17 @@
         <v>44312</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="D18" s="4"/>
+      <c r="E18" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -993,17 +988,17 @@
         <v>44314</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1011,17 +1006,17 @@
         <v>44320</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,17 +1024,17 @@
         <v>44322</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,19 +1042,19 @@
         <v>44325</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,17 +1062,17 @@
         <v>44328</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="D23" s="4"/>
+      <c r="E23" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1085,643 +1080,644 @@
         <v>44329</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>44331</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>66</v>
-      </c>
       <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>44334</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="D27" s="4"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>44335</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D28" s="4"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>44339</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D29" s="4"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>44342</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D30" s="4"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>44342</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="D31" s="4"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>44347</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="D32" s="4"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>44350</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="D33" s="4"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>44352</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>82</v>
-      </c>
       <c r="D34" s="4"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>44356</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="D35" s="4"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>44358</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D36" s="4"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="D37" s="4"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>44362</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="D38" s="4"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D39" s="4"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="4"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>44368</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="D41" s="4"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>44370</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="D42" s="4"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>44372</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D43" s="4"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>44377</v>
       </c>
       <c r="B44" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D44" s="4"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>44380</v>
       </c>
       <c r="B45" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="D45" s="4"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D46" s="4"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>44384</v>
       </c>
       <c r="B47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="D47" s="4"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>44387</v>
       </c>
       <c r="B48" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="D48" s="4"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>44390</v>
       </c>
       <c r="B49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="D49" s="4"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44392</v>
       </c>
       <c r="B50" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="D50" s="4"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>44394</v>
       </c>
       <c r="B51" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="D51" s="4"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>44398</v>
       </c>
       <c r="B52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="D52" s="4"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>44399</v>
       </c>
       <c r="B53" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="D53" s="4"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>44400</v>
       </c>
       <c r="B54" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="D54" s="4"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>44404</v>
       </c>
       <c r="B55" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="D55" s="4"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>44406</v>
       </c>
       <c r="B56" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="D56" s="4"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>44413</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D57" s="4"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>44417</v>
       </c>
       <c r="B58" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="D58" s="4"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>44420</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="D59" s="4"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>44430</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D60" s="4"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D61" s="4"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D62" s="4"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>44433</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D63" s="4"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>44438</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>44445</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>44447</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>44447</v>
       </c>
       <c r="B67" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/476672873686420"/>
-    <hyperlink ref="C5" r:id="rId2" display="https://www.facebook.com/nguyen.laptrinhvientv/videos/482522506434790"/>
-    <hyperlink ref="C6" r:id="rId3" display="https://www.facebook.com/groups/719796585396861/permalink/729233961119790"/>
-    <hyperlink ref="C7" r:id="rId4" display="https://www.facebook.com/groups/719796585396861/permalink/731952124181307"/>
-    <hyperlink ref="C8" r:id="rId5" display="https://bit.ly/3nhaX0L"/>
-    <hyperlink ref="C9" r:id="rId6" display="https://bit.ly/2ZjljVD"/>
-    <hyperlink ref="C10" r:id="rId7" display="https://bit.ly/3Bu9RnH"/>
-    <hyperlink ref="C11" r:id="rId8" display="https://bit.ly/3bKR5h4"/>
-    <hyperlink ref="C12" r:id="rId9" display="https://bit.ly/3bMiL5p"/>
-    <hyperlink ref="C13" r:id="rId10" display="https://bit.ly/300F9oM"/>
-    <hyperlink ref="C14" r:id="rId11" display="https://bit.ly/3D4bYjE"/>
-    <hyperlink ref="C15" r:id="rId12" display="https://bit.ly/3BKJR7D"/>
-    <hyperlink ref="C16" r:id="rId13" display="https://bit.ly/3CQ0jVi"/>
-    <hyperlink ref="C17" r:id="rId14" display="https://bit.ly/3qc8YOl"/>
-    <hyperlink ref="C18" r:id="rId15" display="https://bit.ly/2ZWlqHz"/>
-    <hyperlink ref="C19" r:id="rId16" display="https://bit.ly/3CQ0lMU"/>
-    <hyperlink ref="C20" r:id="rId17" display="https://bit.ly/3wjbgMA"/>
-    <hyperlink ref="C21" r:id="rId18" display="https://bit.ly/3o0aYqs"/>
-    <hyperlink ref="C22" r:id="rId19" display="https://bit.ly/3cjlJ1F"/>
-    <hyperlink ref="D22" r:id="rId20" display="https://bit.ly/3nouvl9"/>
-    <hyperlink ref="C23" r:id="rId21" display="https://bit.ly/3nniIU1"/>
-    <hyperlink ref="C24" r:id="rId22" display="https://bit.ly/3ozxQxi"/>
-    <hyperlink ref="C25" r:id="rId23" display="https://bit.ly/3kLEJdE"/>
-    <hyperlink ref="C26" r:id="rId24" display="https://bit.ly/30w4CaE"/>
-    <hyperlink ref="C27" r:id="rId25" display="https://bit.ly/3HvbipZ"/>
-    <hyperlink ref="C28" r:id="rId26" display="https://bit.ly/3CscG97"/>
-    <hyperlink ref="C29" r:id="rId27" display="https://bit.ly/3x3fY1C"/>
-    <hyperlink ref="C30" r:id="rId28" display="https://bit.ly/30wHAje"/>
-    <hyperlink ref="C31" r:id="rId29" display="https://bit.ly/3DpqdiY"/>
-    <hyperlink ref="C32" r:id="rId30" display="https://bit.ly/3npu6Pj"/>
-    <hyperlink ref="C33" r:id="rId31" display="https://bit.ly/320tsQ4"/>
-    <hyperlink ref="C34" r:id="rId32" display="https://bit.ly/3wWBg0w"/>
-    <hyperlink ref="C35" r:id="rId33" display="https://bit.ly/3HxHOYH"/>
-    <hyperlink ref="C36" r:id="rId34" display="https://bit.ly/3kKXkq2"/>
-    <hyperlink ref="C37" r:id="rId35" display="https://bit.ly/3qLBPt7"/>
-    <hyperlink ref="C38" r:id="rId36" display="https://bit.ly/3Crjns7"/>
-    <hyperlink ref="C39" r:id="rId37" display="https://bit.ly/30Gb66A"/>
-    <hyperlink ref="C40" r:id="rId38" display="https://bit.ly/3nv7jSf"/>
-    <hyperlink ref="C41" r:id="rId39" display="https://bit.ly/3ckiBSS"/>
-    <hyperlink ref="C42" r:id="rId40" display="https://bit.ly/3HFAgmK"/>
-    <hyperlink ref="C43" r:id="rId41" display="https://bit.ly/3npuFsp"/>
-    <hyperlink ref="C44" r:id="rId42" display="https://bit.ly/3Fq2901"/>
-    <hyperlink ref="C45" r:id="rId43" display="https://bit.ly/3HsS8RF"/>
-    <hyperlink ref="C46" r:id="rId44" display="https://bit.ly/30zJ7W1"/>
-    <hyperlink ref="C47" r:id="rId45" display="https://bit.ly/3cjw2Cz"/>
-    <hyperlink ref="C48" r:id="rId46" display="https://bit.ly/3oBaLKy"/>
-    <hyperlink ref="C49" r:id="rId47" display="https://bit.ly/3nlCIXk"/>
-    <hyperlink ref="C50" r:id="rId48" display="https://bit.ly/3oB47Uw"/>
-    <hyperlink ref="C51" r:id="rId49" display="https://bit.ly/3oEjknH"/>
-    <hyperlink ref="C52" r:id="rId50" display="https://bit.ly/3DrvPta"/>
-    <hyperlink ref="C53" r:id="rId51" display="https://bit.ly/3nnlMzv"/>
-    <hyperlink ref="C54" r:id="rId52" display="https://bit.ly/2YW0cZD"/>
-    <hyperlink ref="C55" r:id="rId53" display="https://bit.ly/3cifFq9"/>
-    <hyperlink ref="C56" r:id="rId54" display="https://bit.ly/3cnLOfL"/>
-    <hyperlink ref="C57" r:id="rId55" display="https://bit.ly/3HFBL4m"/>
-    <hyperlink ref="C58" r:id="rId56" display="https://bit.ly/3Dr3t2a"/>
-    <hyperlink ref="C59" r:id="rId57" display="https://bit.ly/3noyVbP"/>
-    <hyperlink ref="C60" r:id="rId58" display="https://bit.ly/3oUH07N"/>
-    <hyperlink ref="C61" r:id="rId59" display="https://bit.ly/3x3irJq"/>
-    <hyperlink ref="C62" r:id="rId60" display="https://bit.ly/3x3irJq"/>
-    <hyperlink ref="C63" r:id="rId61" display="https://bit.ly/3Dt39jg"/>
-    <hyperlink ref="C64" r:id="rId62" display="https://bit.ly/3DqkucX"/>
-    <hyperlink ref="C65" r:id="rId63" display="https://bit.ly/3nq11mW"/>
-    <hyperlink ref="C66" r:id="rId64" display="https://bit.ly/3wVaDZU"/>
-    <hyperlink ref="C67" r:id="rId65" display="https://bit.ly/3qMAlz0"/>
+    <hyperlink ref="C2" r:id="rId1" display="https://bit.ly/3oLw3Fp"/>
+    <hyperlink ref="C3" r:id="rId2" display="https://bit.ly/3CvNrCT"/>
+    <hyperlink ref="C4" r:id="rId3" display="https://bit.ly/3crEkIH"/>
+    <hyperlink ref="C5" r:id="rId4" display="https://bit.ly/30MjKR3"/>
+    <hyperlink ref="C6" r:id="rId5" display="https://bit.ly/3qS991U"/>
+    <hyperlink ref="C7" r:id="rId6" display="https://bit.ly/3qZhDnA"/>
+    <hyperlink ref="C8" r:id="rId7" display="https://bit.ly/3nhaX0L"/>
+    <hyperlink ref="C9" r:id="rId8" display="https://bit.ly/2ZjljVD"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://bit.ly/3Bu9RnH"/>
+    <hyperlink ref="C11" r:id="rId10" display="https://bit.ly/3bKR5h4"/>
+    <hyperlink ref="C12" r:id="rId11" display="https://bit.ly/3bMiL5p"/>
+    <hyperlink ref="C13" r:id="rId12" display="https://bit.ly/300F9oM"/>
+    <hyperlink ref="C14" r:id="rId13" display="https://bit.ly/3D4bYjE"/>
+    <hyperlink ref="C15" r:id="rId14" display="https://bit.ly/3BKJR7D"/>
+    <hyperlink ref="C16" r:id="rId15" display="https://bit.ly/3CQ0jVi"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://bit.ly/3qc8YOl"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://bit.ly/2ZWlqHz"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://bit.ly/3CQ0lMU"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://bit.ly/3wjbgMA"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://bit.ly/3o0aYqs"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://bit.ly/3cjlJ1F"/>
+    <hyperlink ref="D22" r:id="rId22" display="https://bit.ly/3nouvl9"/>
+    <hyperlink ref="C23" r:id="rId23" display="https://bit.ly/3nniIU1"/>
+    <hyperlink ref="C24" r:id="rId24" display="https://bit.ly/3ozxQxi"/>
+    <hyperlink ref="C25" r:id="rId25" display="https://bit.ly/3kLEJdE"/>
+    <hyperlink ref="C26" r:id="rId26" display="https://bit.ly/30w4CaE"/>
+    <hyperlink ref="C27" r:id="rId27" display="https://bit.ly/3HvbipZ"/>
+    <hyperlink ref="C28" r:id="rId28" display="https://bit.ly/3CscG97"/>
+    <hyperlink ref="C29" r:id="rId29" display="https://bit.ly/3x3fY1C"/>
+    <hyperlink ref="C30" r:id="rId30" display="https://bit.ly/30wHAje"/>
+    <hyperlink ref="C31" r:id="rId31" display="https://bit.ly/3DpqdiY"/>
+    <hyperlink ref="C32" r:id="rId32" display="https://bit.ly/3npu6Pj"/>
+    <hyperlink ref="C33" r:id="rId33" display="https://bit.ly/320tsQ4"/>
+    <hyperlink ref="C34" r:id="rId34" display="https://bit.ly/3wWBg0w"/>
+    <hyperlink ref="C35" r:id="rId35" display="https://bit.ly/3HxHOYH"/>
+    <hyperlink ref="C36" r:id="rId36" display="https://bit.ly/3kKXkq2"/>
+    <hyperlink ref="C37" r:id="rId37" display="https://bit.ly/3qLBPt7"/>
+    <hyperlink ref="C38" r:id="rId38" display="https://bit.ly/3Crjns7"/>
+    <hyperlink ref="C39" r:id="rId39" display="https://bit.ly/30Gb66A"/>
+    <hyperlink ref="C40" r:id="rId40" display="https://bit.ly/3nv7jSf"/>
+    <hyperlink ref="C41" r:id="rId41" display="https://bit.ly/3ckiBSS"/>
+    <hyperlink ref="C42" r:id="rId42" display="https://bit.ly/3HFAgmK"/>
+    <hyperlink ref="C43" r:id="rId43" display="https://bit.ly/3npuFsp"/>
+    <hyperlink ref="C44" r:id="rId44" display="https://bit.ly/3Fq2901"/>
+    <hyperlink ref="C45" r:id="rId45" display="https://bit.ly/3HsS8RF"/>
+    <hyperlink ref="C46" r:id="rId46" display="https://bit.ly/30zJ7W1"/>
+    <hyperlink ref="C47" r:id="rId47" display="https://bit.ly/3cjw2Cz"/>
+    <hyperlink ref="C48" r:id="rId48" display="https://bit.ly/3oBaLKy"/>
+    <hyperlink ref="C49" r:id="rId49" display="https://bit.ly/3nlCIXk"/>
+    <hyperlink ref="C50" r:id="rId50" display="https://bit.ly/3oB47Uw"/>
+    <hyperlink ref="C51" r:id="rId51" display="https://bit.ly/3oEjknH"/>
+    <hyperlink ref="C52" r:id="rId52" display="https://bit.ly/3DrvPta"/>
+    <hyperlink ref="C53" r:id="rId53" display="https://bit.ly/3nnlMzv"/>
+    <hyperlink ref="C54" r:id="rId54" display="https://bit.ly/2YW0cZD"/>
+    <hyperlink ref="C55" r:id="rId55" display="https://bit.ly/3cifFq9"/>
+    <hyperlink ref="C56" r:id="rId56" display="https://bit.ly/3cnLOfL"/>
+    <hyperlink ref="C57" r:id="rId57" display="https://bit.ly/3HFBL4m"/>
+    <hyperlink ref="C58" r:id="rId58" display="https://bit.ly/3Dr3t2a"/>
+    <hyperlink ref="C59" r:id="rId59" display="https://bit.ly/3noyVbP"/>
+    <hyperlink ref="C60" r:id="rId60" display="https://bit.ly/3oUH07N"/>
+    <hyperlink ref="C61" r:id="rId61" display="https://bit.ly/3x3irJq"/>
+    <hyperlink ref="C62" r:id="rId62" display="https://bit.ly/3x3irJq"/>
+    <hyperlink ref="C63" r:id="rId63" display="https://bit.ly/3Dt39jg"/>
+    <hyperlink ref="C64" r:id="rId64" display="https://bit.ly/3DqkucX"/>
+    <hyperlink ref="C65" r:id="rId65" display="https://bit.ly/3nq11mW"/>
+    <hyperlink ref="C66" r:id="rId66" display="https://bit.ly/3wVaDZU"/>
+    <hyperlink ref="C67" r:id="rId67" display="https://bit.ly/3qMAlz0"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="137">
   <si>
     <t xml:space="preserve">Ngày</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://bit.ly/3ozxQxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/11/2021</t>
   </si>
   <si>
     <t xml:space="preserve">Practice with Vue (event modify, key modify, key event)</t>
@@ -647,16 +650,16 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="22:22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="7" style="0" width="8.56"/>
@@ -1086,18 +1089,22 @@
         <v>61</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>44331</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="1"/>
@@ -1108,10 +1115,10 @@
         <v>44331</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="1"/>
@@ -1122,10 +1129,10 @@
         <v>44334</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="1"/>
@@ -1136,10 +1143,10 @@
         <v>44335</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="1"/>
@@ -1150,10 +1157,10 @@
         <v>44339</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="1"/>
@@ -1164,10 +1171,10 @@
         <v>44342</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="1"/>
@@ -1178,10 +1185,10 @@
         <v>44342</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1"/>
@@ -1192,10 +1199,10 @@
         <v>44347</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="1"/>
@@ -1206,10 +1213,10 @@
         <v>44350</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="1"/>
@@ -1220,10 +1227,10 @@
         <v>44352</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1"/>
@@ -1234,10 +1241,10 @@
         <v>44356</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1"/>
@@ -1248,10 +1255,10 @@
         <v>44358</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="1"/>
@@ -1262,10 +1269,10 @@
         <v>44358</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="1"/>
@@ -1276,10 +1283,10 @@
         <v>44362</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="1"/>
@@ -1287,7 +1294,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="1"/>
@@ -1295,7 +1302,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="1"/>
@@ -1306,10 +1313,10 @@
         <v>44368</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="1"/>
@@ -1320,10 +1327,10 @@
         <v>44370</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="1"/>
@@ -1334,7 +1341,7 @@
         <v>44372</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="1"/>
@@ -1345,10 +1352,10 @@
         <v>44377</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="1"/>
@@ -1359,10 +1366,10 @@
         <v>44380</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="1"/>
@@ -1370,7 +1377,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="1"/>
@@ -1381,10 +1388,10 @@
         <v>44384</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="1"/>
@@ -1395,10 +1402,10 @@
         <v>44387</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="1"/>
@@ -1409,10 +1416,10 @@
         <v>44390</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="1"/>
@@ -1423,10 +1430,10 @@
         <v>44392</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="1"/>
@@ -1437,10 +1444,10 @@
         <v>44394</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="1"/>
@@ -1451,10 +1458,10 @@
         <v>44398</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="1"/>
@@ -1465,10 +1472,10 @@
         <v>44399</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="1"/>
@@ -1479,10 +1486,10 @@
         <v>44400</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="1"/>
@@ -1493,10 +1500,10 @@
         <v>44404</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="1"/>
@@ -1507,10 +1514,10 @@
         <v>44406</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="1"/>
@@ -1521,10 +1528,10 @@
         <v>44413</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="1"/>
@@ -1535,10 +1542,10 @@
         <v>44417</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="1"/>
@@ -1549,10 +1556,10 @@
         <v>44420</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="1"/>
@@ -1563,7 +1570,7 @@
         <v>44430</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="1"/>
@@ -1574,7 +1581,7 @@
         <v>44431</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="1"/>
@@ -1585,7 +1592,7 @@
         <v>44431</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="1"/>
@@ -1596,7 +1603,7 @@
         <v>44433</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="1"/>
@@ -1607,7 +1614,7 @@
         <v>44438</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="1"/>
@@ -1618,7 +1625,7 @@
         <v>44445</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="1"/>
@@ -1629,7 +1636,7 @@
         <v>44447</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="1"/>
@@ -1640,10 +1647,10 @@
         <v>44447</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="1"/>

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fullstack 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E8036CE-1251-40C3-8C5D-7EB81E9AA32C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817F3817-EDDB-4DB0-AD9E-08660A982936}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
   <si>
     <t>Ngày</t>
   </si>
@@ -438,7 +438,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +449,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +471,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,11 +485,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -869,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,7 +926,7 @@
       <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>44491</v>
       </c>
     </row>
@@ -936,7 +943,7 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>44492</v>
       </c>
     </row>
@@ -953,7 +960,7 @@
       <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>44493</v>
       </c>
     </row>
@@ -971,7 +978,7 @@
       <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>44495</v>
       </c>
     </row>
@@ -989,7 +996,7 @@
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>44498</v>
       </c>
     </row>
@@ -1183,7 +1190,7 @@
       <c r="E17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>44513</v>
       </c>
     </row>
@@ -1201,7 +1208,7 @@
       <c r="E18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>44513</v>
       </c>
     </row>
@@ -1219,7 +1226,7 @@
       <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>44515</v>
       </c>
     </row>
@@ -1237,7 +1244,7 @@
       <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>44516</v>
       </c>
     </row>
@@ -1255,7 +1262,7 @@
       <c r="E21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="8">
         <v>44517</v>
       </c>
     </row>
@@ -1275,7 +1282,7 @@
       <c r="E22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
         <v>44519</v>
       </c>
     </row>
@@ -1293,7 +1300,7 @@
       <c r="E23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
         <v>44519</v>
       </c>
     </row>
@@ -1311,7 +1318,7 @@
       <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="8">
         <v>44526</v>
       </c>
     </row>
@@ -1329,7 +1336,7 @@
       <c r="E25" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="8">
         <v>44557</v>
       </c>
     </row>
@@ -1347,7 +1354,7 @@
       <c r="E26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="8">
         <v>44557</v>
       </c>
     </row>
@@ -1362,11 +1369,15 @@
         <v>55</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="8">
+        <v>44558</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+      <c r="A28" s="9">
         <v>44335</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1380,7 +1391,7 @@
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
+      <c r="A29" s="9">
         <v>44339</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1394,7 +1405,7 @@
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="6">
+      <c r="A30" s="9">
         <v>44342</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1408,7 +1419,7 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
+      <c r="A31" s="10">
         <v>44342</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -1422,7 +1433,7 @@
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
+      <c r="A32" s="9">
         <v>44347</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1436,7 +1447,7 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="9">
         <v>44350</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1684,7 +1695,7 @@
       <c r="A52" s="6">
         <v>44398</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>100</v>
       </c>
       <c r="C52" s="4" t="s">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fullstack 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F115FCFF-2E21-46FD-BF5D-6E1FA60E481B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112862F2-5355-4D87-9B2B-B15449B77538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="126">
   <si>
     <t>Ngày</t>
   </si>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1487,8 +1487,12 @@
         <v>57</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" s="8">
+        <v>44564</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="12">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fullstack 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112862F2-5355-4D87-9B2B-B15449B77538}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B701C3-4B30-43C5-926E-50BC39BD9426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
   <si>
     <t>Ngày</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1508,8 +1508,12 @@
         <v>59</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="8">
+        <v>44574</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="12">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fullstack 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B701C3-4B30-43C5-926E-50BC39BD9426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD13489-FE10-46DD-A630-9483DE517F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
   <si>
     <t>Ngày</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1529,8 +1529,12 @@
         <v>61</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="8">
+        <v>44574</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="12">

--- a/link_bai_giang.xlsx
+++ b/link_bai_giang.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Fullstack 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD13489-FE10-46DD-A630-9483DE517F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DF3065-8C1C-4B78-86FF-A959B01B9F1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="126">
   <si>
     <t>Ngày</t>
   </si>
@@ -890,7 +890,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1550,8 +1550,12 @@
         <v>63</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" s="8">
+        <v>44575</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
